--- a/owlcms/src/main/resources/templates/competitionBook/Scores-LEGAL.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/Scores-LEGAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B27919-2D9A-496E-A3C9-0AD2A0EC88B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6587C56A-3A5D-49F3-933F-FA84A6B688E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="447" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,16 +18,20 @@
     <sheet name="WX" sheetId="45" r:id="rId3"/>
     <sheet name="M6" sheetId="40" r:id="rId4"/>
     <sheet name="W6" sheetId="41" r:id="rId5"/>
-    <sheet name="MXT" sheetId="42" r:id="rId6"/>
-    <sheet name="WXT" sheetId="43" r:id="rId7"/>
-    <sheet name="MWXT" sheetId="46" r:id="rId8"/>
-    <sheet name="Records" sheetId="48" r:id="rId9"/>
-    <sheet name="Points" sheetId="47" r:id="rId10"/>
+    <sheet name="MB" sheetId="49" r:id="rId6"/>
+    <sheet name="WB" sheetId="50" r:id="rId7"/>
+    <sheet name="MXT" sheetId="42" r:id="rId8"/>
+    <sheet name="WXT" sheetId="43" r:id="rId9"/>
+    <sheet name="MWXT" sheetId="46" r:id="rId10"/>
+    <sheet name="Records" sheetId="48" r:id="rId11"/>
+    <sheet name="Points" sheetId="47" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'M6'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">MB!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">MX!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'W6'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">WB!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">WX!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="147">
   <si>
     <t>${l.lastName}</t>
   </si>
@@ -459,23 +463,49 @@
     <t>${r.resAthleteName}</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${mScore}" groupBy="category.code"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${wScore}" groupBy="category.code"&gt;</t>
+    <t>max</t>
+  </si>
+  <si>
+    <t>${l.mastersLongCategory}</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${mBest}" var="l" varStatus="lifterLoop"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${wBest}" var="l" varStatus="lifterLoop"&gt;</t>
+  </si>
+  <si>
+    <t>${l.bestLifterScore}</t>
+  </si>
+  <si>
+    <t>${l.bestLifterRank}</t>
+  </si>
+  <si>
+    <t>${competition.translatedScoringSystemName}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${mCus}" groupBy="category.code"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${wCus}" groupBy="category.code"&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="165" formatCode="0;\(0\);\-"/>
-    <numFmt numFmtId="167" formatCode="#,##0&quot;     &quot;;&quot; (&quot;#,##0&quot;)    &quot;;&quot; -&quot;#&quot;     &quot;;@\ "/>
-    <numFmt numFmtId="168" formatCode="#"/>
-    <numFmt numFmtId="169" formatCode="0;&quot;&quot;"/>
-    <numFmt numFmtId="170" formatCode="0;&quot;&quot;;\-"/>
-    <numFmt numFmtId="171" formatCode="_-#,##0;[Red]\(#,##0\);\-"/>
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="0;\(0\);\-"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;     &quot;;&quot; (&quot;#,##0&quot;)    &quot;;&quot; -&quot;#&quot;     &quot;;@\ "/>
+    <numFmt numFmtId="166" formatCode="#"/>
+    <numFmt numFmtId="167" formatCode="0;&quot;&quot;"/>
+    <numFmt numFmtId="168" formatCode="0;&quot;&quot;;\-"/>
+    <numFmt numFmtId="169" formatCode="_-#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="170" formatCode="0.0;&quot;&quot;"/>
+    <numFmt numFmtId="171" formatCode="0.000;&quot;&quot;;\-"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -691,7 +721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1089,6 +1119,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1103,7 +1179,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1112,17 +1188,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1135,7 +1211,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1147,20 +1223,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1192,13 +1268,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1236,11 +1312,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,10 +1324,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1269,14 +1345,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1350,10 +1426,45 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1405,14 +1516,55 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1428,7 +1580,23 @@
     <cellStyle name="Titre 1 1 1" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Titre de la feuille" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2032,14 +2200,14 @@
       <c r="A1" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39" t="s">
@@ -2053,14 +2221,14 @@
       <c r="A2" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39" t="s">
@@ -2074,14 +2242,14 @@
       <c r="A3" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -3708,7 +3876,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="91" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -3717,10 +3885,621 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="12" width="11.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="str">
+        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" scale="96" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" s="65" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="66"/>
+    </row>
+    <row r="3" spans="1:24" s="65" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+    </row>
+    <row r="4" spans="1:24" s="78" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="70"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="70"/>
+      <c r="S4" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="76"/>
+      <c r="U4" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="V4" s="77"/>
+      <c r="X4" s="71"/>
+    </row>
+    <row r="5" spans="1:24" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="82"/>
+      <c r="M5" s="82"/>
+    </row>
+    <row r="6" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="86"/>
+      <c r="I6" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6" s="85"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="85"/>
+      <c r="S6" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="85"/>
+      <c r="U6" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="86"/>
+      <c r="X6" s="86"/>
+    </row>
+    <row r="7" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="80"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="80"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:D5">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:F3">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" scale="78" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5341,7 +6120,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5382,59 +6167,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="109" t="s">
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="112"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="107"/>
+      <c r="U1" s="108"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -5477,7 +6262,7 @@
     </row>
     <row r="3" spans="1:24" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -5670,11 +6455,11 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="R15" s="98"/>
+      <c r="R15" s="109"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="R16" s="98"/>
+      <c r="R16" s="109"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -5966,20 +6751,20 @@
     <mergeCell ref="N1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5997,7 +6782,7 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
   <pageSetup paperSize="5" scale="98" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.MX_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.MX_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -6039,59 +6824,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="109" t="s">
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="112"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="107"/>
+      <c r="U1" s="108"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -6134,7 +6919,7 @@
     </row>
     <row r="3" spans="1:23" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -6328,11 +7113,11 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="P16" s="98"/>
+      <c r="P16" s="109"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="P17" s="98"/>
+      <c r="P17" s="109"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
@@ -6624,20 +7409,20 @@
     <mergeCell ref="N1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6655,7 +7440,7 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
   <pageSetup paperSize="5" scale="99" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.WX_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.WX_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -6698,58 +7483,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="109" t="s">
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="111" t="s">
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="112"/>
+      <c r="T1" s="108"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -6978,11 +7763,11 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="R15" s="98"/>
+      <c r="R15" s="109"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="R16" s="98"/>
+      <c r="R16" s="109"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -7274,20 +8059,20 @@
     <mergeCell ref="N1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7305,7 +8090,7 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
   <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.M6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.M6_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -7347,58 +8132,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="109" t="s">
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="111" t="s">
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="112"/>
+      <c r="T1" s="108"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -7626,11 +8411,11 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="P16" s="98"/>
+      <c r="P16" s="109"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="P17" s="98"/>
+      <c r="P17" s="109"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
@@ -7922,20 +8707,20 @@
     <mergeCell ref="N1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7953,13 +8738,1090 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
   <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.W6_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.W6_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034ADCBA-9970-4C52-A480-4981C4B36D3A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="21" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="21" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="122"/>
+      <c r="U1"/>
+      <c r="V1"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <v>2</v>
+      </c>
+      <c r="K2" s="16">
+        <v>3</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="16">
+        <v>1</v>
+      </c>
+      <c r="N2" s="16">
+        <v>2</v>
+      </c>
+      <c r="O2" s="16">
+        <v>3</v>
+      </c>
+      <c r="P2" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="V4" s="103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="19"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{F2F774F5-981E-458A-9101-9502A3FCC2A8}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" scale="95" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0764D2-15B5-4E80-9967-C5E685DA3250}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="21" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="21" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="122"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <v>2</v>
+      </c>
+      <c r="K2" s="16">
+        <v>3</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="16">
+        <v>1</v>
+      </c>
+      <c r="N2" s="16">
+        <v>2</v>
+      </c>
+      <c r="O2" s="16">
+        <v>3</v>
+      </c>
+      <c r="P2" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" s="102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{54B911EC-BDC0-4977-B86A-5C92AF492BFE}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" scale="95" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8206,11 +10068,11 @@
       <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
   <pageSetup paperSize="5" scale="92" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.MXT_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.MXT_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
@@ -8219,7 +10081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8551,610 +10413,15 @@
       <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
   <pageSetup paperSize="5" scale="96" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.WXT_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.WXT_RightHeader")}</oddHeader>
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="12" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-    </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-    </row>
-    <row r="10" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="str">
-        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="8" t="str">
-        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="96" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14${t.get("CompetitionBook.WXT_LeftHeader")}&amp;R&amp;14${t.get("CompetitionBook.WXT_RightHeader")}</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:X8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" s="65" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="66"/>
-    </row>
-    <row r="3" spans="1:24" s="65" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-    </row>
-    <row r="4" spans="1:24" s="78" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="70"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="70"/>
-      <c r="S4" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" s="76"/>
-      <c r="U4" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="V4" s="77"/>
-      <c r="X4" s="71"/>
-    </row>
-    <row r="5" spans="1:24" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="79" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="82"/>
-      <c r="M5" s="82"/>
-    </row>
-    <row r="6" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="R6" s="85"/>
-      <c r="S6" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="T6" s="85"/>
-      <c r="U6" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="V6" s="86"/>
-      <c r="X6" s="86"/>
-    </row>
-    <row r="7" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="80"/>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="80"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C5:D5">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:F3">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3" xr:uid="{00000000-0002-0000-0C00-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{00000000-0002-0000-0C00-000001000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/owlcms/src/main/resources/templates/competitionBook/Scores-LEGAL.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/Scores-LEGAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6587C56A-3A5D-49F3-933F-FA84A6B688E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{048DCAE8-B3C3-411C-B501-27A5695D9D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="447" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="4065" windowWidth="23205" windowHeight="11295" tabRatio="447" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="35" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="148">
   <si>
     <t>${l.lastName}</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>&lt;jx:forEach items="${wCus}" groupBy="category.code"&gt;</t>
+  </si>
+  <si>
+    <t>${t.get("Category")}</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1182,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1426,13 +1429,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1458,6 +1455,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1513,10 +1514,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2200,14 +2197,14 @@
       <c r="A1" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39" t="s">
@@ -2221,14 +2218,14 @@
       <c r="A2" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39" t="s">
@@ -2242,14 +2239,14 @@
       <c r="A3" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -3876,7 +3873,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="86" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -4231,7 +4228,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="96" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="74" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -4482,7 +4479,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="78" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="60" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -6122,7 +6119,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -6135,7 +6132,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X107"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -6163,63 +6160,69 @@
     <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
     <col min="19" max="20" width="6.28515625" customWidth="1"/>
     <col min="21" max="21" width="6.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="120" t="s">
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="107"/>
-      <c r="U1" s="108"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" s="106"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" s="104"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -6259,8 +6262,14 @@
       <c r="U2" s="51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V2" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>145</v>
       </c>
@@ -6275,7 +6284,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:24" s="18" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="18" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -6288,7 +6297,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>92</v>
       </c>
@@ -6312,11 +6321,13 @@
       <c r="S5" s="58"/>
       <c r="T5" s="58"/>
       <c r="U5" s="59"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="59"/>
       <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -6335,8 +6346,9 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="U6"/>
-    </row>
-    <row r="7" spans="1:24" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:26" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>19</v>
       </c>
@@ -6398,8 +6410,14 @@
       <c r="U7" s="49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V7" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="W7" s="100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6417,8 +6435,9 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="U8"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -6436,30 +6455,31 @@
       <c r="Q9"/>
       <c r="R9"/>
       <c r="U9"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="19"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="R15" s="109"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="R15" s="108"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="R16" s="109"/>
+      <c r="R16" s="108"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -6736,7 +6756,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="R15:R16"/>
     <mergeCell ref="A1:A2"/>
@@ -6780,7 +6801,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="98" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="82" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -6793,7 +6814,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -6821,62 +6842,68 @@
     <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
     <col min="19" max="20" width="6.28515625" customWidth="1"/>
     <col min="21" max="21" width="6.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="120" t="s">
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="107"/>
-      <c r="U1" s="108"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" s="106"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="W1" s="104"/>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -6916,8 +6943,14 @@
       <c r="U2" s="51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V2" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>146</v>
       </c>
@@ -6932,7 +6965,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:23" s="18" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="18" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -6945,7 +6978,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>92</v>
       </c>
@@ -6969,10 +7002,12 @@
       <c r="S5" s="58"/>
       <c r="T5" s="58"/>
       <c r="U5" s="59"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V5" s="58"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -6990,8 +7025,9 @@
       <c r="P6"/>
       <c r="R6"/>
       <c r="U6"/>
-    </row>
-    <row r="7" spans="1:23" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:25" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>19</v>
       </c>
@@ -7053,8 +7089,14 @@
       <c r="U7" s="49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V7" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="W7" s="100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -7072,8 +7114,9 @@
       <c r="P8"/>
       <c r="R8"/>
       <c r="U8"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -7091,33 +7134,34 @@
       <c r="P9"/>
       <c r="R9"/>
       <c r="U9"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="19"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="P16" s="109"/>
+      <c r="P16" s="108"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="P17" s="109"/>
+      <c r="P17" s="108"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
@@ -7394,7 +7438,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:A2"/>
@@ -7438,7 +7483,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="99" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="77" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -7483,58 +7528,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="120" t="s">
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="106" t="s">
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="108"/>
+      <c r="T1" s="107"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -7763,11 +7808,11 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="R15" s="109"/>
+      <c r="R15" s="108"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="R16" s="109"/>
+      <c r="R16" s="108"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -8088,7 +8133,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="79" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -8132,58 +8177,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="120" t="s">
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="106" t="s">
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="108"/>
+      <c r="T1" s="107"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -8411,11 +8456,11 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="P16" s="109"/>
+      <c r="P16" s="108"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="P17" s="109"/>
+      <c r="P17" s="108"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
@@ -8736,7 +8781,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="79" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -8769,69 +8814,69 @@
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" style="21" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="21" customWidth="1"/>
     <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132" t="s">
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="133" t="s">
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="122" t="s">
+      <c r="R1" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="122"/>
+      <c r="S1" s="104"/>
       <c r="U1"/>
       <c r="V1"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="131"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="129"/>
       <c r="I2" s="16">
         <v>1</v>
       </c>
@@ -8853,14 +8898,14 @@
       <c r="O2" s="16">
         <v>3</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="S2" s="98" t="s">
+      <c r="Q2" s="132"/>
+      <c r="R2" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="51" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8890,10 +8935,10 @@
       <c r="A4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="97" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="17"/>
@@ -8906,7 +8951,7 @@
       <c r="G4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="98" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="24" t="s">
@@ -8936,13 +8981,13 @@
       <c r="Q4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="101" t="s">
         <v>139</v>
       </c>
     </row>
@@ -9289,7 +9334,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="95" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="74" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -9322,65 +9367,65 @@
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" style="21" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="21" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132" t="s">
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="133" t="s">
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="122" t="s">
+      <c r="R1" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="122"/>
+      <c r="S1" s="104"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="131"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="129"/>
       <c r="I2" s="16">
         <v>1</v>
       </c>
@@ -9402,14 +9447,14 @@
       <c r="O2" s="16">
         <v>3</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="S2" s="98" t="s">
+      <c r="Q2" s="132"/>
+      <c r="R2" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="51" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9436,10 +9481,10 @@
       <c r="A4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="97" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="17"/>
@@ -9452,7 +9497,7 @@
       <c r="G4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="98" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="24" t="s">
@@ -9482,10 +9527,10 @@
       <c r="Q4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="100" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9813,7 +9858,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="95" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="73" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -10070,7 +10115,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="92" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="71" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -10415,7 +10460,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="96" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="74" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>

--- a/owlcms/src/main/resources/templates/competitionBook/Scores-LEGAL.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/Scores-LEGAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{048DCAE8-B3C3-411C-B501-27A5695D9D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BBEEE6-31AF-4BDF-B129-40D59C735723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="4065" windowWidth="23205" windowHeight="11295" tabRatio="447" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="1830" windowWidth="20535" windowHeight="11625" tabRatio="447" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="35" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="149">
   <si>
     <t>${l.lastName}</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>${t.get("Category")}</t>
+  </si>
+  <si>
+    <t>${bestRankingTitle}</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1185,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1562,6 +1565,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6134,8 +6141,8 @@
   </sheetPr>
   <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6209,7 +6216,7 @@
       </c>
       <c r="T1" s="106"/>
       <c r="U1" s="107"/>
-      <c r="V1" s="104" t="s">
+      <c r="V1" s="133" t="s">
         <v>144</v>
       </c>
       <c r="W1" s="104"/>
@@ -8796,8 +8803,8 @@
   </sheetPr>
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8862,7 +8869,7 @@
         <v>48</v>
       </c>
       <c r="R1" s="104" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="S1" s="104"/>
       <c r="U1"/>
@@ -9350,7 +9357,7 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="R1" sqref="R1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9413,7 +9420,7 @@
         <v>48</v>
       </c>
       <c r="R1" s="104" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="S1" s="104"/>
     </row>

--- a/owlcms/src/main/resources/templates/competitionBook/Scores-LEGAL.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/Scores-LEGAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BBEEE6-31AF-4BDF-B129-40D59C735723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B1FE42-AF95-4A33-8A36-6D4711897863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="1830" windowWidth="20535" windowHeight="11625" tabRatio="447" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="447" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="35" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="159">
   <si>
     <t>${l.lastName}</t>
   </si>
@@ -497,6 +497,36 @@
   </si>
   <si>
     <t>${bestRankingTitle}</t>
+  </si>
+  <si>
+    <t>${t.get("Medal.Gold")}</t>
+  </si>
+  <si>
+    <t>${t.get("Medal.Silver")}</t>
+  </si>
+  <si>
+    <t>${t.get("Medal.Bronze")}</t>
+  </si>
+  <si>
+    <t>$[sumif(a10:a14,a5,n10:n14)]</t>
+  </si>
+  <si>
+    <t>$[sumif(a10:a14,a5,o10:o14)]</t>
+  </si>
+  <si>
+    <t>$[sumif(a10:a14,a5,p10:p14)]</t>
+  </si>
+  <si>
+    <t>$[if(D12="M",if(C17&lt;&gt;"",if(L12&lt;=C17,K12,0),if(L12&gt;0,K12,0)),if(C18&lt;&gt;"",if(L12&lt;=C18,K12,0),if(L12&gt;0,K12,0)))]</t>
+  </si>
+  <si>
+    <t>$[countif(j12:j12,1)]</t>
+  </si>
+  <si>
+    <t>$[countif(j12:j12,2)]</t>
+  </si>
+  <si>
+    <t>$[countif(j12:j12,3)]</t>
   </si>
 </sst>
 </file>
@@ -727,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1171,6 +1201,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1452,6 +1495,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1565,10 +1609,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2204,14 +2244,14 @@
       <c r="A1" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39" t="s">
@@ -2225,14 +2265,14 @@
       <c r="A2" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39" t="s">
@@ -2246,14 +2286,14 @@
       <c r="A3" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -3880,7 +3920,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="86" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -3896,7 +3936,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3908,8 +3948,8 @@
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+    <col min="8" max="13" width="11.42578125" style="4" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -3928,6 +3968,8 @@
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
+      <c r="M2"/>
+      <c r="P2"/>
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
@@ -3944,6 +3986,18 @@
       </c>
       <c r="E3" s="64" t="s">
         <v>40</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="64" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -3956,6 +4010,10 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -3977,6 +4035,18 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
+      <c r="M5" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="102" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3987,6 +4057,10 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -4053,6 +4127,18 @@
       <c r="L10" s="33" t="s">
         <v>53</v>
       </c>
+      <c r="M10" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4063,6 +4149,10 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -4100,6 +4190,18 @@
       </c>
       <c r="L12" s="62" t="s">
         <v>99</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="62" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4111,10 +4213,10 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
@@ -4137,10 +4239,10 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
@@ -4156,10 +4258,6 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -4177,10 +4275,6 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -4197,10 +4291,6 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -4217,10 +4307,6 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -4235,7 +4321,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="74" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="82" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -4486,7 +4572,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="60" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="78" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -6126,7 +6212,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="5" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -6142,7 +6228,7 @@
   <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:W4"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6173,63 +6259,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="119" t="s">
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="105" t="s">
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="T1" s="106"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="133" t="s">
+      <c r="T1" s="107"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="104"/>
+      <c r="W1" s="105"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -6482,11 +6568,11 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="R15" s="108"/>
+      <c r="R15" s="109"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="R16" s="108"/>
+      <c r="R16" s="109"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -6824,7 +6910,7 @@
   <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6854,63 +6940,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="119" t="s">
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="105" t="s">
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="T1" s="106"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="104" t="s">
+      <c r="T1" s="107"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="104"/>
+      <c r="W1" s="105"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -7164,11 +7250,11 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="P16" s="108"/>
+      <c r="P16" s="109"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="P17" s="108"/>
+      <c r="P17" s="109"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
@@ -7490,7 +7576,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="77" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="85" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -7506,7 +7592,7 @@
   <dimension ref="A1:W107"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7535,58 +7621,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="119" t="s">
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="105" t="s">
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="107"/>
+      <c r="T1" s="108"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -7815,11 +7901,11 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="R15" s="108"/>
+      <c r="R15" s="109"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="R16" s="108"/>
+      <c r="R16" s="109"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -8140,7 +8226,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="79" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -8156,7 +8242,7 @@
   <dimension ref="A1:W108"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8184,58 +8270,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="119" t="s">
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="105" t="s">
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="107"/>
+      <c r="T1" s="108"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="32">
         <v>1</v>
       </c>
@@ -8463,11 +8549,11 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="P16" s="108"/>
+      <c r="P16" s="109"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="P17" s="108"/>
+      <c r="P17" s="109"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
@@ -8788,7 +8874,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="79" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -8829,61 +8915,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="131" t="s">
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="104" t="s">
+      <c r="R1" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="104"/>
+      <c r="S1" s="105"/>
       <c r="U1"/>
       <c r="V1"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="129"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="130"/>
       <c r="I2" s="16">
         <v>1</v>
       </c>
@@ -8908,7 +8994,7 @@
       <c r="P2" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" s="132"/>
+      <c r="Q2" s="133"/>
       <c r="R2" s="30" t="s">
         <v>102</v>
       </c>
@@ -9333,7 +9419,7 @@
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{F2F774F5-981E-458A-9101-9502A3FCC2A8}">
       <formula1>0</formula1>
       <formula2>200</formula2>
@@ -9341,7 +9427,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="74" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -9357,7 +9443,7 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9380,59 +9466,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="131" t="s">
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="104" t="s">
+      <c r="R1" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="104"/>
+      <c r="S1" s="105"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="129"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="130"/>
       <c r="I2" s="16">
         <v>1</v>
       </c>
@@ -9457,7 +9543,7 @@
       <c r="P2" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" s="132"/>
+      <c r="Q2" s="133"/>
       <c r="R2" s="30" t="s">
         <v>102</v>
       </c>
@@ -9865,7 +9951,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="73" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -9881,7 +9967,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9905,7 +9991,10 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2"/>
+      <c r="P2"/>
+    </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>44</v>
@@ -9919,6 +10008,18 @@
       <c r="D3" s="64" t="s">
         <v>38</v>
       </c>
+      <c r="M3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="64" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -9927,8 +10028,8 @@
       <c r="B4" s="15"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -9945,6 +10046,18 @@
       </c>
       <c r="D5" s="61" t="s">
         <v>16</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="102" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10010,6 +10123,18 @@
       <c r="L10" s="33" t="s">
         <v>53</v>
       </c>
+      <c r="M10" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -10060,12 +10185,28 @@
       <c r="L12" s="62" t="s">
         <v>99</v>
       </c>
+      <c r="M12" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="62" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -10086,6 +10227,10 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -10122,7 +10267,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="71" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="82" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -10141,7 +10286,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10153,8 +10298,8 @@
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+    <col min="8" max="13" width="11.42578125" style="4" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -10173,6 +10318,8 @@
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
+      <c r="M2"/>
+      <c r="P2"/>
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
@@ -10186,6 +10333,18 @@
       </c>
       <c r="D3" s="64" t="s">
         <v>40</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="64" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -10198,6 +10357,10 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -10216,6 +10379,18 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
+      <c r="M5" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="102" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -10226,6 +10401,10 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -10291,6 +10470,18 @@
       <c r="L10" s="33" t="s">
         <v>53</v>
       </c>
+      <c r="M10" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -10301,6 +10492,10 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -10338,6 +10533,18 @@
       </c>
       <c r="L12" s="62" t="s">
         <v>99</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="62" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10349,10 +10556,10 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
@@ -10375,10 +10582,10 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
@@ -10394,10 +10601,6 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -10415,10 +10618,6 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -10429,10 +10628,6 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -10449,10 +10644,6 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -10467,7 +10658,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="74" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="82" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>

--- a/owlcms/src/main/resources/templates/competitionBook/Scores-LEGAL.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/Scores-LEGAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B1FE42-AF95-4A33-8A36-6D4711897863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFB3EEC-3862-4B11-9C9F-2CA2E6915083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="447" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">WB!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">WX!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="160">
   <si>
     <t>${l.lastName}</t>
   </si>
@@ -70,12 +70,6 @@
     <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
-    <t>${l.snatchRank}</t>
-  </si>
-  <si>
-    <t>${l.cleanJerkRank}</t>
-  </si>
-  <si>
     <t>${nbClubs}</t>
   </si>
   <si>
@@ -322,9 +316,6 @@
     <t>${competition.womenPerTeamElseDefault}</t>
   </si>
   <si>
-    <t>${l.totalRank}</t>
-  </si>
-  <si>
     <t>&lt;jx:forEach items="${mTot}" groupBy="category.code"&gt;</t>
   </si>
   <si>
@@ -527,6 +518,18 @@
   </si>
   <si>
     <t>$[countif(j12:j12,3)]</t>
+  </si>
+  <si>
+    <t>${l.snatchRank &lt; 0 ? t.get("Results.Extra/Invited") : l.snatchRank}</t>
+  </si>
+  <si>
+    <t>${l.cleanJerkRank &lt; 0 ? t.get("Results.Extra/Invited") : l.cleanJerkRank}</t>
+  </si>
+  <si>
+    <t>${l.totalRank &lt; 0 ? t.get("Results.Extra/Invited") : l.totalRank}</t>
+  </si>
+  <si>
+    <t>${l.customRank &lt; 0 ? t.get("Results.Extra/Invited") : l.customRank}</t>
   </si>
 </sst>
 </file>
@@ -2242,10 +2245,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="103"/>
       <c r="D1" s="103"/>
@@ -2255,18 +2258,18 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="104"/>
@@ -2276,18 +2279,18 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
@@ -2314,24 +2317,24 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J8" s="43"/>
       <c r="L8" s="44"/>
@@ -2356,42 +2359,42 @@
     </row>
     <row r="10" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="I10" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="L10" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="M10" s="40" t="s">
         <v>70</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1"/>
       <c r="H11" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="M11" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N11" s="1"/>
       <c r="P11"/>
@@ -2401,22 +2404,22 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1"/>
       <c r="H12" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="M12" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40"/>
@@ -2426,15 +2429,15 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N13"/>
       <c r="S13"/>
@@ -2447,7 +2450,7 @@
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
@@ -3954,7 +3957,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3973,36 +3976,36 @@
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="64" t="s">
-        <v>40</v>
-      </c>
       <c r="M3" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O3" s="64" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="15"/>
       <c r="H4"/>
@@ -4017,35 +4020,35 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="M5" s="36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P5" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4075,7 +4078,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4092,57 +4095,57 @@
     </row>
     <row r="10" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P10" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -4165,43 +4168,43 @@
         <v>0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L12" s="62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M12" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="P12" s="62" t="s">
         <v>155</v>
-      </c>
-      <c r="N12" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="O12" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="P12" s="62" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4248,10 +4251,10 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -4264,11 +4267,11 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -4281,10 +4284,10 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -4297,10 +4300,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -4363,13 +4366,13 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J2" s="66"/>
     </row>
@@ -4399,54 +4402,54 @@
     </row>
     <row r="4" spans="1:24" s="78" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="69" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="71"/>
       <c r="D4" s="72" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="74" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H4" s="75"/>
       <c r="I4" s="72" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J4" s="69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K4" s="76"/>
       <c r="L4" s="70"/>
       <c r="M4" s="71"/>
       <c r="N4" s="69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O4" s="70"/>
       <c r="P4" s="77"/>
       <c r="Q4" s="69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R4" s="70"/>
       <c r="S4" s="69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T4" s="76"/>
       <c r="U4" s="69" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="V4" s="77"/>
       <c r="X4" s="71"/>
     </row>
     <row r="5" spans="1:24" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -4462,47 +4465,47 @@
     </row>
     <row r="6" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="84" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="85"/>
       <c r="C6" s="86"/>
       <c r="D6" s="87" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F6" s="84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H6" s="86"/>
       <c r="I6" s="90" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J6" s="88" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K6" s="85"/>
       <c r="L6" s="85"/>
       <c r="M6" s="86"/>
       <c r="N6" s="88" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O6" s="85"/>
       <c r="P6" s="86"/>
       <c r="Q6" s="84" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R6" s="85"/>
       <c r="S6" s="89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="T6" s="85"/>
       <c r="U6" s="91" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="V6" s="86"/>
       <c r="X6" s="86"/>
@@ -4529,7 +4532,7 @@
     </row>
     <row r="8" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
@@ -4595,10 +4598,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6260,50 +6263,50 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="H1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="I1" s="120" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="120" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="121"/>
       <c r="K1" s="121"/>
       <c r="L1" s="121"/>
       <c r="M1" s="121"/>
       <c r="N1" s="120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O1" s="121"/>
       <c r="P1" s="121"/>
       <c r="Q1" s="121"/>
       <c r="R1" s="121"/>
       <c r="S1" s="106" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T1" s="107"/>
       <c r="U1" s="108"/>
       <c r="V1" s="105" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W1" s="105"/>
     </row>
@@ -6326,10 +6329,10 @@
         <v>3</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N2" s="16">
         <v>1</v>
@@ -6341,30 +6344,30 @@
         <v>3</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="51" t="s">
-        <v>50</v>
-      </c>
       <c r="V2" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -6392,7 +6395,7 @@
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="58"/>
@@ -6422,7 +6425,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -6443,7 +6446,7 @@
     </row>
     <row r="7" spans="1:26" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>0</v>
@@ -6453,7 +6456,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>2</v>
@@ -6462,52 +6465,52 @@
         <v>3</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="M7" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="O7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="24" t="s">
+      <c r="P7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="Q7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>28</v>
-      </c>
       <c r="R7" s="50" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="S7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U7" s="49" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="V7" s="99" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W7" s="100" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -6941,50 +6944,50 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="H1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="I1" s="120" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="120" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="121"/>
       <c r="K1" s="121"/>
       <c r="L1" s="121"/>
       <c r="M1" s="121"/>
       <c r="N1" s="120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O1" s="121"/>
       <c r="P1" s="121"/>
       <c r="Q1" s="121"/>
       <c r="R1" s="121"/>
       <c r="S1" s="106" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T1" s="107"/>
       <c r="U1" s="108"/>
       <c r="V1" s="105" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W1" s="105"/>
     </row>
@@ -7007,10 +7010,10 @@
         <v>3</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N2" s="16">
         <v>1</v>
@@ -7022,30 +7025,30 @@
         <v>3</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="51" t="s">
-        <v>50</v>
-      </c>
       <c r="V2" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -7073,7 +7076,7 @@
     </row>
     <row r="5" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="58"/>
@@ -7102,7 +7105,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -7122,7 +7125,7 @@
     </row>
     <row r="7" spans="1:25" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>0</v>
@@ -7132,7 +7135,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>2</v>
@@ -7141,52 +7144,52 @@
         <v>3</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="M7" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="O7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="24" t="s">
+      <c r="P7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="Q7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>28</v>
-      </c>
       <c r="R7" s="50" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="S7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U7" s="49" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="V7" s="99" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W7" s="100" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -7622,45 +7625,45 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="H1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="I1" s="120" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="120" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="121"/>
       <c r="K1" s="121"/>
       <c r="L1" s="121"/>
       <c r="M1" s="121"/>
       <c r="N1" s="120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O1" s="121"/>
       <c r="P1" s="121"/>
       <c r="Q1" s="121"/>
       <c r="R1" s="121"/>
       <c r="S1" s="106" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T1" s="108"/>
     </row>
@@ -7683,10 +7686,10 @@
         <v>3</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N2" s="16">
         <v>1</v>
@@ -7698,21 +7701,21 @@
         <v>3</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="51" t="s">
         <v>48</v>
-      </c>
-      <c r="T2" s="51" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -7740,7 +7743,7 @@
     </row>
     <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="58"/>
@@ -7767,7 +7770,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -7787,7 +7790,7 @@
     </row>
     <row r="7" spans="1:23" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>0</v>
@@ -7797,7 +7800,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>2</v>
@@ -7806,43 +7809,43 @@
         <v>3</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="M7" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="O7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="24" t="s">
+      <c r="P7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="Q7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>28</v>
-      </c>
       <c r="R7" s="50" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="S7" s="22" t="s">
         <v>4</v>
       </c>
       <c r="T7" s="49" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -8226,7 +8229,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="96" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -8271,45 +8274,45 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="H1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="I1" s="120" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="120" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="121"/>
       <c r="K1" s="121"/>
       <c r="L1" s="121"/>
       <c r="M1" s="121"/>
       <c r="N1" s="120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O1" s="121"/>
       <c r="P1" s="121"/>
       <c r="Q1" s="121"/>
       <c r="R1" s="121"/>
       <c r="S1" s="106" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T1" s="108"/>
     </row>
@@ -8332,10 +8335,10 @@
         <v>3</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N2" s="16">
         <v>1</v>
@@ -8347,21 +8350,21 @@
         <v>3</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="51" t="s">
         <v>48</v>
-      </c>
-      <c r="T2" s="51" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -8389,7 +8392,7 @@
     </row>
     <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="58"/>
@@ -8416,7 +8419,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -8434,7 +8437,7 @@
     </row>
     <row r="7" spans="1:23" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>0</v>
@@ -8444,7 +8447,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>2</v>
@@ -8453,43 +8456,43 @@
         <v>3</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="M7" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="O7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="24" t="s">
+      <c r="P7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="Q7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>28</v>
-      </c>
       <c r="R7" s="50" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="S7" s="22" t="s">
         <v>4</v>
       </c>
       <c r="T7" s="49" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -8874,7 +8877,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -8890,7 +8893,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8916,46 +8919,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="H1" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="I1" s="131" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" s="129" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="131" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="131"/>
       <c r="K1" s="131"/>
       <c r="L1" s="131"/>
       <c r="M1" s="131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N1" s="131"/>
       <c r="O1" s="131"/>
       <c r="P1" s="131"/>
       <c r="Q1" s="132" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R1" s="105" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S1" s="105"/>
       <c r="U1"/>
@@ -8980,7 +8983,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M2" s="16">
         <v>1</v>
@@ -8992,19 +8995,19 @@
         <v>3</v>
       </c>
       <c r="P2" s="96" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q2" s="133"/>
       <c r="R2" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -9026,7 +9029,7 @@
     </row>
     <row r="4" spans="1:22" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="97" t="s">
         <v>0</v>
@@ -9036,7 +9039,7 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>2</v>
@@ -9045,43 +9048,43 @@
         <v>3</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="N4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="O4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="P4" s="23" t="s">
         <v>26</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="99" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S4" s="100" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="V4" s="101" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -9443,7 +9446,7 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9465,48 +9468,48 @@
     <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="H1" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="I1" s="131" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" s="129" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="131" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="131"/>
       <c r="K1" s="131"/>
       <c r="L1" s="131"/>
       <c r="M1" s="131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N1" s="131"/>
       <c r="O1" s="131"/>
       <c r="P1" s="131"/>
       <c r="Q1" s="132" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R1" s="105" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S1" s="105"/>
     </row>
@@ -9529,7 +9532,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M2" s="16">
         <v>1</v>
@@ -9541,19 +9544,19 @@
         <v>3</v>
       </c>
       <c r="P2" s="96" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q2" s="133"/>
       <c r="R2" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S2" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -9572,7 +9575,7 @@
     </row>
     <row r="4" spans="1:19" s="18" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="97" t="s">
         <v>0</v>
@@ -9582,7 +9585,7 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>2</v>
@@ -9591,40 +9594,40 @@
         <v>3</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="N4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="O4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="P4" s="23" t="s">
         <v>26</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="99" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S4" s="100" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -9986,7 +9989,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9997,33 +10000,33 @@
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O3" s="64" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="15"/>
       <c r="L4"/>
@@ -10036,28 +10039,28 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P5" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10080,7 +10083,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -10088,57 +10091,57 @@
     <row r="9" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:18" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P10" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -10159,43 +10162,43 @@
         <v>0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L12" s="62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M12" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="P12" s="62" t="s">
         <v>155</v>
-      </c>
-      <c r="N12" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="O12" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="P12" s="62" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10234,27 +10237,27 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -10304,7 +10307,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10323,33 +10326,33 @@
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O3" s="64" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="15"/>
       <c r="H4"/>
@@ -10364,32 +10367,32 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="M5" s="36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P5" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10418,7 +10421,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -10435,57 +10438,57 @@
     </row>
     <row r="10" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P10" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -10508,43 +10511,43 @@
         <v>0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L12" s="62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M12" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="P12" s="62" t="s">
         <v>155</v>
-      </c>
-      <c r="N12" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="O12" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="P12" s="62" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10591,10 +10594,10 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -10607,11 +10610,11 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -10634,10 +10637,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
